--- a/model_results_fp.xlsx
+++ b/model_results_fp.xlsx
@@ -498,20 +498,20 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>H75</t>
+          <t>H25</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7281.858671964363</v>
+        <v>1823.000127430847</v>
       </c>
       <c r="C2" t="n">
-        <v>7281.858671964363</v>
+        <v>2088</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>12.69156477821614</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5894069671630859</v>
+        <v>2.755618810653687</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -519,22 +519,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>8783</v>
+        <v>2704</v>
       </c>
       <c r="H2" t="n">
-        <v>33440</v>
+        <v>11440</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>8918</v>
       </c>
       <c r="J2" t="n">
-        <v>1158.530130636325</v>
+        <v>335</v>
       </c>
       <c r="K2" t="n">
-        <v>1158.530130636325</v>
+        <v>360</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>6.944444444444445</v>
       </c>
     </row>
   </sheetData>
